--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>worse</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -70,54 +76,48 @@
     <t>addicted</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>frightening</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -130,18 +130,21 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
@@ -151,7 +154,7 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>first</t>
@@ -526,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -637,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
@@ -737,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,13 +864,13 @@
         <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
@@ -937,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.5166666666666667</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.4444444444444444</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.3703703703703703</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>0.2121212121212121</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5454545454545454</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>0.0482695810564663</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1045</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,7 +1258,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>0.05009107468123861</v>
+      </c>
+      <c r="L16">
+        <v>55</v>
+      </c>
+      <c r="M16">
+        <v>55</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1263,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1281,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1318,10 +1345,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1333,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1341,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1359,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1367,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4492753623188406</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1385,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1393,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.391304347826087</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1411,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1419,13 +1446,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1437,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1445,13 +1472,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.358974358974359</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1463,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1471,13 +1498,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3191489361702128</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1489,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1497,13 +1524,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2857142857142857</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1515,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1523,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2857142857142857</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1541,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1549,13 +1576,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2692307692307692</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1567,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1575,13 +1602,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.08974358974358974</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1593,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
